--- a/NOVO modell.xlsx
+++ b/NOVO modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959988C4-D089-164D-8146-DEE1020C6194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A9673-1E66-5945-981C-143C28DF6B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="500" windowWidth="26760" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="4" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="270">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -990,6 +990,12 @@
   <si>
     <t>5% vekst og konstante marginer</t>
   </si>
+  <si>
+    <t xml:space="preserve">15.08.25: </t>
+  </si>
+  <si>
+    <t>10.09.25: Novo kutter 9000 stillinger som forventer å spare 8 mrd DKK innen slutten av 26 og en one-off restrukturering på 8 mrd DKK som leder til en oppdatert operating profit growth of 4-10% at CER</t>
+  </si>
 </sst>
 </file>
 
@@ -1338,7 +1344,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1475,32 +1481,12 @@
     <xf numFmtId="166" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
@@ -1705,16 +1691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>116114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>795664</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>523521</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1737,8 +1723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15360650" y="5962650"/>
-          <a:ext cx="7152014" cy="10382250"/>
+          <a:off x="23552150" y="6103257"/>
+          <a:ext cx="7197371" cy="9878786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1749,16 +1735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>820964</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>221342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>414564</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>100834</xdr:rowOff>
+      <xdr:rowOff>118976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1781,8 +1767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7588250" y="15062200"/>
-          <a:ext cx="7785100" cy="5993634"/>
+          <a:off x="15280821" y="14717485"/>
+          <a:ext cx="7848600" cy="5558205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,16 +1779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>135164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466644</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>182813</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>394072</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>37670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1825,8 +1811,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874000" y="5981700"/>
-          <a:ext cx="6943644" cy="9060113"/>
+          <a:off x="15285357" y="6122307"/>
+          <a:ext cx="6989001" cy="8647363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>740260</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Bilde 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06894343-DABC-A20F-80B1-5E843AC9B5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7801429" y="6005286"/>
+          <a:ext cx="7398688" cy="12591142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>626449</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Bilde 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C047BD3F-6F14-16E9-6265-C3211456F179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72572" y="6114143"/>
+          <a:ext cx="7593306" cy="9706428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2810,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6FABC2-1253-924E-8CB2-F0C03750A097}">
-  <dimension ref="A2:P47"/>
+  <dimension ref="A2:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2956,76 +3030,81 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3083,11 +3162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
   <dimension ref="A1:EM143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="AI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S110" sqref="S110"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3185,7 @@
     <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="88"/>
+    <col min="16" max="16" width="10.83203125" style="2"/>
     <col min="17" max="17" width="10.83203125" style="4"/>
     <col min="18" max="28" width="10.83203125" style="2"/>
     <col min="29" max="29" width="10.83203125" style="4"/>
@@ -3177,7 +3256,7 @@
       <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q3" s="8" t="s">
@@ -3247,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>309.5</v>
+        <v>319</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>114</v>
@@ -3300,7 +3379,7 @@
         <f>O5+O6</f>
         <v>35256</v>
       </c>
-      <c r="P4" s="90">
+      <c r="P4" s="30">
         <f>P5+P6</f>
         <v>33879</v>
       </c>
@@ -3398,7 +3477,7 @@
       <c r="O5" s="37">
         <v>33853</v>
       </c>
-      <c r="P5" s="91">
+      <c r="P5" s="31">
         <v>32721</v>
       </c>
       <c r="Q5" s="68">
@@ -3447,7 +3526,7 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>1378977.25</v>
+        <v>1421304.5</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>116</v>
@@ -3488,7 +3567,7 @@
       <c r="O6" s="37">
         <v>1403</v>
       </c>
-      <c r="P6" s="91">
+      <c r="P6" s="31">
         <v>1158</v>
       </c>
       <c r="Q6" s="68">
@@ -3578,7 +3657,7 @@
       <c r="O7" s="36">
         <v>6917</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="30">
         <v>5695</v>
       </c>
       <c r="Q7" s="66">
@@ -3738,7 +3817,7 @@
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>1459810.25</v>
+        <v>1502137.5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>119</v>
@@ -3791,7 +3870,7 @@
         <f>SUM(O10:O13)</f>
         <v>5158</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="30">
         <f>SUM(P10:P13)</f>
         <v>5388</v>
       </c>
@@ -3883,7 +3962,7 @@
       <c r="O10" s="37">
         <v>2735</v>
       </c>
-      <c r="P10" s="91">
+      <c r="P10" s="31">
         <v>3577</v>
       </c>
       <c r="Q10" s="68">
@@ -3966,7 +4045,7 @@
       <c r="O11" s="37">
         <v>1274</v>
       </c>
-      <c r="P11" s="91">
+      <c r="P11" s="31">
         <v>1209</v>
       </c>
       <c r="Q11" s="68">
@@ -4049,7 +4128,7 @@
       <c r="O12" s="37">
         <v>1139</v>
       </c>
-      <c r="P12" s="91">
+      <c r="P12" s="31">
         <v>543</v>
       </c>
       <c r="Q12" s="68">
@@ -4114,7 +4193,7 @@
       <c r="O13" s="37">
         <v>10</v>
       </c>
-      <c r="P13" s="91">
+      <c r="P13" s="31">
         <v>59</v>
       </c>
       <c r="Q13" s="68">
@@ -4209,7 +4288,7 @@
         <f>SUM(O15:O16)</f>
         <v>2867</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="30">
         <f>SUM(P15:P16)</f>
         <v>2813</v>
       </c>
@@ -4300,7 +4379,7 @@
       <c r="O15" s="37">
         <v>1346</v>
       </c>
-      <c r="P15" s="91">
+      <c r="P15" s="31">
         <v>1432</v>
       </c>
       <c r="Q15" s="68">
@@ -4382,7 +4461,7 @@
       <c r="O16" s="37">
         <v>1521</v>
       </c>
-      <c r="P16" s="91">
+      <c r="P16" s="31">
         <v>1381</v>
       </c>
       <c r="Q16" s="68">
@@ -4476,7 +4555,7 @@
         <f>SUM(O18:O19)</f>
         <v>6017</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="30">
         <f>SUM(P18:P19)</f>
         <v>5052</v>
       </c>
@@ -4567,7 +4646,7 @@
       <c r="O18" s="37">
         <v>343</v>
       </c>
-      <c r="P18" s="91">
+      <c r="P18" s="31">
         <v>834</v>
       </c>
       <c r="Q18" s="68">
@@ -4648,7 +4727,7 @@
       <c r="O19" s="37">
         <v>5674</v>
       </c>
-      <c r="P19" s="91">
+      <c r="P19" s="31">
         <v>4218</v>
       </c>
       <c r="Q19" s="68">
@@ -4729,7 +4808,7 @@
       <c r="O20" s="44">
         <v>1845</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="30">
         <v>1744</v>
       </c>
       <c r="Q20" s="66">
@@ -4913,7 +4992,7 @@
       <c r="O22" s="44">
         <v>512</v>
       </c>
-      <c r="P22" s="90">
+      <c r="P22" s="30">
         <v>473</v>
       </c>
       <c r="Q22" s="66">
@@ -5015,7 +5094,7 @@
         <v>51566</v>
       </c>
       <c r="R23" s="38">
-        <f t="shared" ref="Q23:S23" si="44">R8+R21+R22</f>
+        <f t="shared" ref="R23:S23" si="44">R8+R21+R22</f>
         <v>0</v>
       </c>
       <c r="S23" s="38">
@@ -5099,7 +5178,7 @@
       <c r="O24" s="36">
         <v>19866</v>
       </c>
-      <c r="P24" s="90">
+      <c r="P24" s="30">
         <v>17360</v>
       </c>
       <c r="Q24" s="66">
@@ -5180,7 +5259,7 @@
       <c r="O25" s="36">
         <v>1540</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="30">
         <v>1064</v>
       </c>
       <c r="Q25" s="66">
@@ -5484,7 +5563,7 @@
         <f t="shared" si="60"/>
         <v>3398</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="30">
         <f>SUM(P29:P32)</f>
         <v>2921</v>
       </c>
@@ -5577,7 +5656,7 @@
       <c r="O29" s="37">
         <v>670</v>
       </c>
-      <c r="P29" s="91">
+      <c r="P29" s="31">
         <v>554</v>
       </c>
       <c r="Q29" s="68">
@@ -5659,7 +5738,7 @@
       <c r="O30" s="45">
         <v>378</v>
       </c>
-      <c r="P30" s="91">
+      <c r="P30" s="31">
         <v>342</v>
       </c>
       <c r="Q30" s="68">
@@ -5742,7 +5821,7 @@
         <f t="shared" ref="O31" si="69">+N31</f>
         <v>2003</v>
       </c>
-      <c r="P31" s="91">
+      <c r="P31" s="31">
         <v>1879</v>
       </c>
       <c r="Q31" s="68">
@@ -5835,7 +5914,7 @@
         <f>5705-O33-O31-O30-O29</f>
         <v>347</v>
       </c>
-      <c r="P32" s="91">
+      <c r="P32" s="31">
         <v>146</v>
       </c>
       <c r="Q32" s="68">
@@ -5929,7 +6008,7 @@
         <f>384+1923</f>
         <v>2307</v>
       </c>
-      <c r="P33" s="90">
+      <c r="P33" s="30">
         <f>1312+386</f>
         <v>1698</v>
       </c>
@@ -6118,7 +6197,7 @@
       <c r="O35" s="13">
         <v>85683</v>
       </c>
-      <c r="P35" s="92">
+      <c r="P35" s="13">
         <v>78087</v>
       </c>
       <c r="Q35" s="14">
@@ -6242,7 +6321,7 @@
         <f t="shared" si="77"/>
         <v>-13024</v>
       </c>
-      <c r="P36" s="93">
+      <c r="P36" s="15">
         <f t="shared" si="77"/>
         <v>-12890</v>
       </c>
@@ -6355,7 +6434,7 @@
       <c r="O37" s="15">
         <v>72659</v>
       </c>
-      <c r="P37" s="93">
+      <c r="P37" s="15">
         <v>65197</v>
       </c>
       <c r="Q37" s="16">
@@ -6392,43 +6471,43 @@
         <f>AC35*0.83</f>
         <v>262727.59409999999</v>
       </c>
-      <c r="AD37" s="93">
+      <c r="AD37" s="15">
         <f t="shared" ref="AD37:AM37" si="80">AD35*0.83</f>
         <v>286373.07756900002</v>
       </c>
-      <c r="AE37" s="93">
+      <c r="AE37" s="15">
         <f t="shared" si="80"/>
         <v>312146.65455020999</v>
       </c>
-      <c r="AF37" s="93">
+      <c r="AF37" s="15">
         <f t="shared" si="80"/>
         <v>340239.85345972894</v>
       </c>
-      <c r="AG37" s="93">
+      <c r="AG37" s="15">
         <f t="shared" si="80"/>
         <v>370861.44027110457</v>
       </c>
-      <c r="AH37" s="93">
+      <c r="AH37" s="15">
         <f t="shared" si="80"/>
         <v>404238.96989550401</v>
       </c>
-      <c r="AI37" s="93">
+      <c r="AI37" s="15">
         <f t="shared" si="80"/>
         <v>440620.47718609939</v>
       </c>
-      <c r="AJ37" s="93">
+      <c r="AJ37" s="15">
         <f t="shared" si="80"/>
         <v>480276.32013284834</v>
       </c>
-      <c r="AK37" s="93">
+      <c r="AK37" s="15">
         <f t="shared" si="80"/>
         <v>523501.18894480471</v>
       </c>
-      <c r="AL37" s="93">
+      <c r="AL37" s="15">
         <f t="shared" si="80"/>
         <v>570616.29594983719</v>
       </c>
-      <c r="AM37" s="93">
+      <c r="AM37" s="15">
         <f t="shared" si="80"/>
         <v>621971.76258532261</v>
       </c>
@@ -6473,7 +6552,7 @@
       <c r="O38" s="15">
         <v>-18701</v>
       </c>
-      <c r="P38" s="93">
+      <c r="P38" s="15">
         <v>-14892</v>
       </c>
       <c r="Q38" s="16">
@@ -6585,7 +6664,7 @@
       <c r="O39" s="15">
         <v>-13802</v>
       </c>
-      <c r="P39" s="93">
+      <c r="P39" s="15">
         <v>-10308</v>
       </c>
       <c r="Q39" s="16">
@@ -6697,7 +6776,7 @@
       <c r="O40" s="15">
         <v>-1580</v>
       </c>
-      <c r="P40" s="93">
+      <c r="P40" s="15">
         <v>-1220</v>
       </c>
       <c r="Q40" s="16">
@@ -6809,7 +6888,7 @@
       <c r="O41" s="15">
         <v>-1839</v>
       </c>
-      <c r="P41" s="93">
+      <c r="P41" s="15">
         <v>14</v>
       </c>
       <c r="Q41" s="16">
@@ -6933,7 +7012,7 @@
         <f>SUM(O37:O41)</f>
         <v>36737</v>
       </c>
-      <c r="P42" s="92">
+      <c r="P42" s="13">
         <f t="shared" si="84"/>
         <v>38791</v>
       </c>
@@ -7053,7 +7132,7 @@
       <c r="O43" s="15">
         <v>3913</v>
       </c>
-      <c r="P43" s="93">
+      <c r="P43" s="15">
         <v>3425</v>
       </c>
       <c r="Q43" s="16">
@@ -7154,7 +7233,7 @@
       <c r="O44" s="15">
         <v>-5093</v>
       </c>
-      <c r="P44" s="93">
+      <c r="P44" s="15">
         <v>-5183</v>
       </c>
       <c r="Q44" s="16">
@@ -7267,7 +7346,7 @@
         <f t="shared" si="97"/>
         <v>35557</v>
       </c>
-      <c r="P45" s="93">
+      <c r="P45" s="15">
         <f t="shared" si="97"/>
         <v>37033</v>
       </c>
@@ -7387,7 +7466,7 @@
       <c r="O46" s="15">
         <v>-7327</v>
       </c>
-      <c r="P46" s="93">
+      <c r="P46" s="15">
         <v>-7999</v>
       </c>
       <c r="Q46" s="16">
@@ -7511,7 +7590,7 @@
         <f t="shared" si="111"/>
         <v>28230</v>
       </c>
-      <c r="P47" s="92">
+      <c r="P47" s="13">
         <f>SUM(P45:P46)</f>
         <v>29034</v>
       </c>
@@ -8061,7 +8140,7 @@
         <f t="shared" si="127"/>
         <v>6.3359892267983389</v>
       </c>
-      <c r="P48" s="94">
+      <c r="P48" s="10">
         <f>P47/P49</f>
         <v>6.5297768981648083</v>
       </c>
@@ -8180,7 +8259,7 @@
       <c r="O49" s="18">
         <v>4455.5</v>
       </c>
-      <c r="P49" s="95">
+      <c r="P49" s="18">
         <v>4446.3999999999996</v>
       </c>
       <c r="Q49" s="5">
@@ -8302,7 +8381,7 @@
         <f t="shared" si="139"/>
         <v>0.30092768322123198</v>
       </c>
-      <c r="P51" s="96">
+      <c r="P51" s="22">
         <f t="shared" si="139"/>
         <v>0.19492264610016985</v>
       </c>
@@ -8505,7 +8584,7 @@
         <f t="shared" si="144"/>
         <v>0.12599368035922168</v>
       </c>
-      <c r="P53" s="97">
+      <c r="P53" s="11">
         <f>(P5-L5)/L5</f>
         <v>0.17659115426105718</v>
       </c>
@@ -8640,7 +8719,7 @@
         <f>((O8+O24+O25)-(K8+K24+K25))/(K8+K24+K25)</f>
         <v>0.29779546846295163</v>
       </c>
-      <c r="P54" s="97">
+      <c r="P54" s="11">
         <f>((P8+P24+P25)-(L8+L24+L25))/(L8+L24+L25)</f>
         <v>0.26036030162765933</v>
       </c>
@@ -8775,7 +8854,7 @@
         <f>(O21-K21)/K21</f>
         <v>0.32612687813021701</v>
       </c>
-      <c r="P55" s="97">
+      <c r="P55" s="11">
         <f>(P21-L21)/L21</f>
         <v>4.3995823181343541E-2</v>
       </c>
@@ -8914,7 +8993,7 @@
         <f t="shared" si="157"/>
         <v>0.84799785254951388</v>
       </c>
-      <c r="P56" s="97">
+      <c r="P56" s="11">
         <f t="shared" ref="P56:S56" si="158">P37/P35</f>
         <v>0.83492770883757861</v>
       </c>
@@ -9058,7 +9137,7 @@
         <f t="shared" si="161"/>
         <v>0.42875482884586208</v>
       </c>
-      <c r="P57" s="97">
+      <c r="P57" s="11">
         <f t="shared" ref="P57:S57" si="162">P42/P35</f>
         <v>0.49676642719018532</v>
       </c>
@@ -9147,7 +9226,7 @@
       </c>
       <c r="AP57" s="49">
         <f>(AP56-B4)/B4</f>
-        <v>0.77824077446767204</v>
+        <v>0.72528376080797652</v>
       </c>
     </row>
     <row r="58" spans="3:42" x14ac:dyDescent="0.25">
@@ -9166,7 +9245,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
       <c r="O58" s="19"/>
-      <c r="P58" s="98"/>
+      <c r="P58" s="19"/>
       <c r="Q58" s="20"/>
       <c r="R58" s="19"/>
       <c r="S58" s="19"/>
@@ -9248,13 +9327,12 @@
       <c r="O61" s="15">
         <v>111090</v>
       </c>
-      <c r="P61" s="93">
+      <c r="P61" s="15">
         <v>109379</v>
       </c>
       <c r="Q61" s="16">
         <v>107866</v>
       </c>
-      <c r="AH61" s="107"/>
     </row>
     <row r="62" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
@@ -9296,7 +9374,7 @@
       <c r="O62" s="15">
         <v>162488</v>
       </c>
-      <c r="P62" s="93">
+      <c r="P62" s="15">
         <v>172376</v>
       </c>
       <c r="Q62" s="16">
@@ -9350,7 +9428,7 @@
       <c r="O63" s="15">
         <v>400</v>
       </c>
-      <c r="P63" s="93">
+      <c r="P63" s="15">
         <v>394</v>
       </c>
       <c r="Q63" s="16">
@@ -9397,7 +9475,7 @@
       <c r="O64" s="15">
         <v>24627</v>
       </c>
-      <c r="P64" s="93">
+      <c r="P64" s="15">
         <v>26275</v>
       </c>
       <c r="Q64" s="16">
@@ -9444,7 +9522,7 @@
       <c r="O65" s="15">
         <v>4016</v>
       </c>
-      <c r="P65" s="93">
+      <c r="P65" s="15">
         <v>4037</v>
       </c>
       <c r="Q65" s="16">
@@ -9491,7 +9569,7 @@
       <c r="O66" s="15">
         <v>2277</v>
       </c>
-      <c r="P66" s="93">
+      <c r="P66" s="15">
         <v>2306</v>
       </c>
       <c r="Q66" s="16">
@@ -9538,7 +9616,7 @@
       <c r="O67" s="15">
         <v>40849</v>
       </c>
-      <c r="P67" s="93">
+      <c r="P67" s="15">
         <v>42853</v>
       </c>
       <c r="Q67" s="16">
@@ -9585,7 +9663,7 @@
       <c r="O68" s="15">
         <v>71949</v>
       </c>
-      <c r="P68" s="93">
+      <c r="P68" s="15">
         <v>69459</v>
       </c>
       <c r="Q68" s="16">
@@ -9632,7 +9710,7 @@
       <c r="O69" s="15">
         <v>2853</v>
       </c>
-      <c r="P69" s="93">
+      <c r="P69" s="15">
         <v>2983</v>
       </c>
       <c r="Q69" s="16">
@@ -9679,7 +9757,7 @@
       <c r="O70" s="15">
         <v>12612</v>
       </c>
-      <c r="P70" s="93">
+      <c r="P70" s="15">
         <v>13924</v>
       </c>
       <c r="Q70" s="16">
@@ -9726,7 +9804,7 @@
       <c r="O71" s="15">
         <v>10653</v>
       </c>
-      <c r="P71" s="93">
+      <c r="P71" s="15">
         <v>2612</v>
       </c>
       <c r="Q71" s="16">
@@ -9773,7 +9851,7 @@
       <c r="O72" s="15">
         <v>6326</v>
       </c>
-      <c r="P72" s="93">
+      <c r="P72" s="15">
         <v>3626</v>
       </c>
       <c r="Q72" s="16">
@@ -9820,7 +9898,7 @@
       <c r="O73" s="15">
         <v>15655</v>
       </c>
-      <c r="P73" s="93">
+      <c r="P73" s="15">
         <v>38938</v>
       </c>
       <c r="Q73" s="16">
@@ -9879,7 +9957,7 @@
         <f t="shared" si="166"/>
         <v>465795</v>
       </c>
-      <c r="P74" s="92">
+      <c r="P74" s="13">
         <f t="shared" si="166"/>
         <v>489162</v>
       </c>
@@ -9928,7 +10006,7 @@
       <c r="O75" s="15">
         <v>446</v>
       </c>
-      <c r="P75" s="93">
+      <c r="P75" s="15">
         <v>446</v>
       </c>
       <c r="Q75" s="14">
@@ -9975,7 +10053,7 @@
       <c r="O76" s="15">
         <v>-2</v>
       </c>
-      <c r="P76" s="93">
+      <c r="P76" s="15">
         <v>-2</v>
       </c>
       <c r="Q76" s="16">
@@ -10022,7 +10100,7 @@
       <c r="O77" s="15">
         <v>144448</v>
       </c>
-      <c r="P77" s="93">
+      <c r="P77" s="15">
         <v>137319</v>
       </c>
       <c r="Q77" s="16">
@@ -10069,7 +10147,7 @@
       <c r="O78" s="15">
         <v>-1406</v>
       </c>
-      <c r="P78" s="93">
+      <c r="P78" s="15">
         <v>777</v>
       </c>
       <c r="Q78" s="16">
@@ -10128,7 +10206,7 @@
         <f t="shared" si="168"/>
         <v>143486</v>
       </c>
-      <c r="P79" s="99">
+      <c r="P79" s="17">
         <f t="shared" si="168"/>
         <v>138540</v>
       </c>
@@ -10177,7 +10255,7 @@
       <c r="O80" s="15">
         <v>89674</v>
       </c>
-      <c r="P80" s="93">
+      <c r="P80" s="15">
         <v>96310</v>
       </c>
       <c r="Q80" s="16">
@@ -10224,7 +10302,7 @@
       <c r="O81" s="15">
         <v>5426</v>
       </c>
-      <c r="P81" s="93">
+      <c r="P81" s="15">
         <v>8705</v>
       </c>
       <c r="Q81" s="16">
@@ -10271,7 +10349,7 @@
       <c r="O82" s="15">
         <v>903</v>
       </c>
-      <c r="P82" s="93">
+      <c r="P82" s="15">
         <v>836</v>
       </c>
       <c r="Q82" s="16">
@@ -10318,7 +10396,7 @@
       <c r="O83" s="15">
         <v>23</v>
       </c>
-      <c r="P83" s="93">
+      <c r="P83" s="15">
         <v>21</v>
       </c>
       <c r="Q83" s="16">
@@ -10365,7 +10443,7 @@
       <c r="O84" s="15">
         <v>8755</v>
       </c>
-      <c r="P84" s="93">
+      <c r="P84" s="15">
         <v>8633</v>
       </c>
       <c r="Q84" s="16">
@@ -10412,7 +10490,7 @@
       <c r="O85" s="15">
         <v>13113</v>
       </c>
-      <c r="P85" s="93">
+      <c r="P85" s="15">
         <v>22413</v>
       </c>
       <c r="Q85" s="16">
@@ -10459,7 +10537,7 @@
       <c r="O86" s="15">
         <v>28846</v>
       </c>
-      <c r="P86" s="93">
+      <c r="P86" s="15">
         <v>19576</v>
       </c>
       <c r="Q86" s="16">
@@ -10506,7 +10584,7 @@
       <c r="O87" s="15">
         <v>9716</v>
       </c>
-      <c r="P87" s="93">
+      <c r="P87" s="15">
         <v>15501</v>
       </c>
       <c r="Q87" s="16">
@@ -10553,7 +10631,7 @@
       <c r="O88" s="15">
         <v>37993</v>
       </c>
-      <c r="P88" s="93">
+      <c r="P88" s="15">
         <v>58585</v>
       </c>
       <c r="Q88" s="16">
@@ -10600,7 +10678,7 @@
       <c r="O89" s="15">
         <v>7531</v>
       </c>
-      <c r="P89" s="93">
+      <c r="P89" s="15">
         <v>2392</v>
       </c>
       <c r="Q89" s="16">
@@ -10647,7 +10725,7 @@
       <c r="O90" s="15">
         <v>120329</v>
       </c>
-      <c r="P90" s="93">
+      <c r="P90" s="15">
         <v>117650</v>
       </c>
       <c r="Q90" s="16">
@@ -10706,7 +10784,7 @@
         <f t="shared" si="170"/>
         <v>322309</v>
       </c>
-      <c r="P91" s="99">
+      <c r="P91" s="17">
         <f t="shared" ref="P91:Q91" si="171">SUM(P80:P90)</f>
         <v>350622</v>
       </c>
@@ -10767,7 +10845,7 @@
         <f t="shared" si="173"/>
         <v>465795</v>
       </c>
-      <c r="P92" s="92">
+      <c r="P92" s="13">
         <f t="shared" ref="P92:Q92" si="174">P79+P91</f>
         <v>489162</v>
       </c>
@@ -10793,7 +10871,7 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="P93" s="100"/>
+      <c r="P93" s="1"/>
       <c r="Q93" s="65"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -10868,7 +10946,7 @@
         <f t="shared" si="175"/>
         <v>28230</v>
       </c>
-      <c r="P95" s="93">
+      <c r="P95" s="15">
         <f t="shared" si="175"/>
         <v>29034</v>
       </c>
@@ -10943,7 +11021,7 @@
       <c r="O96" s="15">
         <v>28230</v>
       </c>
-      <c r="P96" s="93">
+      <c r="P96" s="15">
         <v>29034</v>
       </c>
       <c r="Q96" s="16">
@@ -11022,7 +11100,7 @@
         <f>26302-L97-M97-N97</f>
         <v>7426</v>
       </c>
-      <c r="P97" s="93">
+      <c r="P97" s="15">
         <v>7999</v>
       </c>
       <c r="Q97" s="16">
@@ -11100,7 +11178,7 @@
         <f>19107-L98-M98-N98</f>
         <v>-2967</v>
       </c>
-      <c r="P98" s="93">
+      <c r="P98" s="15">
         <v>3830</v>
       </c>
       <c r="Q98" s="16">
@@ -11178,7 +11256,7 @@
         <f>15029-L99-M99-N99</f>
         <v>-15080</v>
       </c>
-      <c r="P99" s="93">
+      <c r="P99" s="15">
         <v>2966</v>
       </c>
       <c r="Q99" s="16">
@@ -11256,7 +11334,7 @@
         <f>-11995-L100-M100-N100</f>
         <v>-981</v>
       </c>
-      <c r="P100" s="93">
+      <c r="P100" s="15">
         <v>-16428</v>
       </c>
       <c r="Q100" s="16">
@@ -11334,7 +11412,7 @@
         <f>1884-L101-M101-N101</f>
         <v>813</v>
       </c>
-      <c r="P101" s="93">
+      <c r="P101" s="15">
         <v>694</v>
       </c>
       <c r="Q101" s="16">
@@ -11412,7 +11490,7 @@
         <f>-612-L102-M102-N102</f>
         <v>-253</v>
       </c>
-      <c r="P102" s="93">
+      <c r="P102" s="15">
         <v>-833</v>
       </c>
       <c r="Q102" s="16">
@@ -11490,7 +11568,7 @@
         <f>-29636-L103-M103-N103</f>
         <v>-12953</v>
       </c>
-      <c r="P103" s="93">
+      <c r="P103" s="15">
         <v>-2671</v>
       </c>
       <c r="Q103" s="16">
@@ -11578,7 +11656,7 @@
         <f t="shared" si="178"/>
         <v>4235</v>
       </c>
-      <c r="P104" s="92">
+      <c r="P104" s="13">
         <f t="shared" si="178"/>
         <v>24591</v>
       </c>
@@ -11693,7 +11771,7 @@
         <f>-4145-L106-M106-N106</f>
         <v>-457</v>
       </c>
-      <c r="P106" s="93">
+      <c r="P106" s="15">
         <v>-1164</v>
       </c>
       <c r="Q106" s="16">
@@ -11775,7 +11853,7 @@
         <f>-47164-L107-M107-N107</f>
         <v>-16102</v>
       </c>
-      <c r="P107" s="93">
+      <c r="P107" s="15">
         <v>-13422</v>
       </c>
       <c r="Q107" s="16">
@@ -11856,7 +11934,7 @@
         <f>-82163-L108-M108-N108</f>
         <v>-81495</v>
       </c>
-      <c r="P108" s="93">
+      <c r="P108" s="15">
         <v>0</v>
       </c>
       <c r="Q108" s="16">
@@ -11937,7 +12015,7 @@
         <f>(0-786-19028+24391)-L109-M109-N109</f>
         <v>6838</v>
       </c>
-      <c r="P109" s="93">
+      <c r="P109" s="15">
         <f>-115+8028</f>
         <v>7913</v>
       </c>
@@ -12036,7 +12114,7 @@
         <f t="shared" si="181"/>
         <v>-91216</v>
       </c>
-      <c r="P110" s="92">
+      <c r="P110" s="13">
         <f t="shared" si="181"/>
         <v>-6673</v>
       </c>
@@ -12092,7 +12170,7 @@
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
-      <c r="P111" s="100"/>
+      <c r="P111" s="1"/>
       <c r="Q111" s="65"/>
       <c r="W111" s="15"/>
       <c r="X111" s="15"/>
@@ -12152,7 +12230,7 @@
         <f>-20181-L112-M112-N112</f>
         <v>-7491</v>
       </c>
-      <c r="P112" s="93">
+      <c r="P112" s="15">
         <v>-1388</v>
       </c>
       <c r="Q112" s="16">
@@ -12233,7 +12311,7 @@
         <f>-44140-L113-M113-N113</f>
         <v>0</v>
       </c>
-      <c r="P113" s="93">
+      <c r="P113" s="15">
         <f>-35274+20244+6538</f>
         <v>-8492</v>
       </c>
@@ -12317,7 +12395,7 @@
         <f>79391-L114-M114-N114</f>
         <v>50661</v>
       </c>
-      <c r="P114" s="93">
+      <c r="P114" s="15">
         <v>27363</v>
       </c>
       <c r="Q114" s="16">
@@ -12399,7 +12477,7 @@
         <f>-6335-L115-M115-N115</f>
         <v>-6335</v>
       </c>
-      <c r="P115" s="93">
+      <c r="P115" s="15">
         <v>-12032</v>
       </c>
       <c r="Q115" s="16">
@@ -12491,7 +12569,7 @@
         <f>SUM(O112:O115)</f>
         <v>36835</v>
       </c>
-      <c r="P116" s="92">
+      <c r="P116" s="13">
         <f>SUM(P112:P115)</f>
         <v>5451</v>
       </c>
@@ -12585,7 +12663,7 @@
       <c r="M118" s="15"/>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
-      <c r="P118" s="88">
+      <c r="P118" s="2">
         <v>-86</v>
       </c>
       <c r="W118" s="15">
@@ -12701,7 +12779,7 @@
         <f t="shared" si="187"/>
         <v>-50146</v>
       </c>
-      <c r="P120" s="93">
+      <c r="P120" s="15">
         <f t="shared" ref="P120:Q120" si="188">P104+P110+P116+P118</f>
         <v>23283</v>
       </c>
@@ -12758,7 +12836,7 @@
       <c r="M121" s="15"/>
       <c r="N121" s="15"/>
       <c r="O121" s="15"/>
-      <c r="P121" s="93"/>
+      <c r="P121" s="15"/>
       <c r="Q121" s="16"/>
       <c r="W121" s="15"/>
       <c r="X121" s="15"/>
@@ -12830,7 +12908,7 @@
         <f>SUM(O104:O108)</f>
         <v>-93819</v>
       </c>
-      <c r="P122" s="93">
+      <c r="P122" s="15">
         <f>SUM(P104:P108)</f>
         <v>10005</v>
       </c>
@@ -13785,15 +13863,15 @@
       </c>
       <c r="D5" s="64">
         <f>Modell!$B$9/Modell!AC42</f>
-        <v>10.391298244729077</v>
+        <v>10.692594306069383</v>
       </c>
       <c r="E5" s="64">
         <f>Modell!$B$9/Modell!AD42</f>
-        <v>9.5333011419532774</v>
+        <v>9.8097195468526408</v>
       </c>
       <c r="F5" s="64">
         <f>Modell!$B$9/Modell!AE42</f>
-        <v>8.7461478366543854</v>
+        <v>8.9997427035345368</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="92" x14ac:dyDescent="1">
@@ -13802,15 +13880,15 @@
       </c>
       <c r="D6" s="64">
         <f>Modell!$B$4/Modell!AC48</f>
-        <v>12.543659772663966</v>
+        <v>12.928683255185154</v>
       </c>
       <c r="E6" s="64">
         <f>Modell!$B$4/Modell!AD48</f>
-        <v>11.280777485323192</v>
+        <v>11.627037214274955</v>
       </c>
       <c r="F6" s="64">
         <f>Modell!$B$4/Modell!AE48</f>
-        <v>10.351655023157361</v>
+        <v>10.66939564583909</v>
       </c>
     </row>
   </sheetData>
@@ -13822,11 +13900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0652624-FE9D-A042-B90B-185E336B33BD}">
   <dimension ref="A3:XFD51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -13967,7 +14045,7 @@
       </c>
     </row>
     <row r="5" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A5" s="101">
+      <c r="A5" s="88">
         <f>W25</f>
         <v>279.65166336360147</v>
       </c>
@@ -14040,7 +14118,7 @@
     <row r="6" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <f>W26</f>
-        <v>-9.6440506094987166E-2</v>
+        <v>-0.12334901766896091</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -14208,7 +14286,7 @@
         <v>-52868.200000000004</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" ref="K8:T10" si="6">J8*0.95</f>
+        <f t="shared" ref="K8:K10" si="6">J8*0.95</f>
         <v>-50224.79</v>
       </c>
       <c r="L8" s="15">
@@ -15600,87 +15678,87 @@
       </c>
     </row>
     <row r="26" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="102"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="103">
+      <c r="D26" s="90">
         <f t="shared" ref="D26:T26" si="19">D11/D4</f>
         <v>0.4301144884896862</v>
       </c>
-      <c r="E26" s="103">
+      <c r="E26" s="90">
         <f t="shared" si="19"/>
         <v>0.42637026767286879</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="90">
         <f t="shared" si="19"/>
         <v>0.41650568181818182</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="90">
         <f t="shared" si="19"/>
         <v>0.42275958723736112</v>
       </c>
-      <c r="H26" s="103">
+      <c r="H26" s="90">
         <f t="shared" si="19"/>
         <v>0.44163247381178933</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="90">
         <f t="shared" si="19"/>
         <v>0.44193413979883128</v>
       </c>
-      <c r="J26" s="104">
+      <c r="J26" s="91">
         <f t="shared" si="19"/>
         <v>0.44153188165247226</v>
       </c>
-      <c r="K26" s="103">
+      <c r="K26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="L26" s="103">
+      <c r="L26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="M26" s="103">
+      <c r="M26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="N26" s="103">
+      <c r="N26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="O26" s="103">
+      <c r="O26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="P26" s="103">
+      <c r="P26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="Q26" s="103">
+      <c r="Q26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="R26" s="103">
+      <c r="R26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="S26" s="103">
+      <c r="S26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="T26" s="103">
+      <c r="T26" s="90">
         <f t="shared" si="19"/>
         <v>0.41195528756984873</v>
       </c>
-      <c r="V26" s="105" t="s">
+      <c r="V26" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="W26" s="106">
+      <c r="W26" s="93">
         <f>(W25-Modell!$B$4)/Modell!$B$4</f>
-        <v>-9.6440506094987166E-2</v>
+        <v>-0.12334901766896091</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -15689,7 +15767,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="101">
+      <c r="A28" s="88">
         <f>W50</f>
         <v>385.60304260604516</v>
       </c>
@@ -15748,7 +15826,7 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <f>W51</f>
-        <v>0.24589028305668875</v>
+        <v>0.20878696741706948</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
@@ -16054,7 +16132,7 @@
         <v>-53396.882000000005</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" ref="K33:T35" si="27">K33*1.05</f>
+        <f t="shared" ref="L33:T35" si="27">K33*1.05</f>
         <v>-56066.726100000007</v>
       </c>
       <c r="M33" s="15">
@@ -17445,81 +17523,81 @@
       <c r="C51" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="103">
+      <c r="D51" s="90">
         <f t="shared" ref="D51:T51" si="49">D36/D29</f>
         <v>0.4301144884896862</v>
       </c>
-      <c r="E51" s="103">
+      <c r="E51" s="90">
         <f t="shared" si="49"/>
         <v>0.42637026767286879</v>
       </c>
-      <c r="F51" s="103">
+      <c r="F51" s="90">
         <f t="shared" si="49"/>
         <v>0.41650568181818182</v>
       </c>
-      <c r="G51" s="103">
+      <c r="G51" s="90">
         <f t="shared" si="49"/>
         <v>0.42275958723736112</v>
       </c>
-      <c r="H51" s="103">
+      <c r="H51" s="90">
         <f t="shared" si="49"/>
         <v>0.44163247381178933</v>
       </c>
-      <c r="I51" s="103">
+      <c r="I51" s="90">
         <f t="shared" si="49"/>
         <v>0.44193413979883128</v>
       </c>
-      <c r="J51" s="104">
+      <c r="J51" s="91">
         <f t="shared" si="49"/>
         <v>0.44153188165247226</v>
       </c>
-      <c r="K51" s="103">
+      <c r="K51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523529</v>
       </c>
-      <c r="L51" s="103">
+      <c r="L51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523523</v>
       </c>
-      <c r="M51" s="103">
+      <c r="M51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523534</v>
       </c>
-      <c r="N51" s="103">
+      <c r="N51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523529</v>
       </c>
-      <c r="O51" s="103">
+      <c r="O51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523523</v>
       </c>
-      <c r="P51" s="103">
+      <c r="P51" s="90">
         <f t="shared" si="49"/>
         <v>0.4070925718752354</v>
       </c>
-      <c r="Q51" s="103">
+      <c r="Q51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523534</v>
       </c>
-      <c r="R51" s="103">
+      <c r="R51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523518</v>
       </c>
-      <c r="S51" s="103">
+      <c r="S51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523529</v>
       </c>
-      <c r="T51" s="103">
+      <c r="T51" s="90">
         <f t="shared" si="49"/>
         <v>0.40709257187523545</v>
       </c>
       <c r="U51" s="32"/>
-      <c r="V51" s="105" t="s">
+      <c r="V51" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="106">
+      <c r="W51" s="93">
         <f>(W50-Modell!$B$4)/Modell!$B$4</f>
-        <v>0.24589028305668875</v>
+        <v>0.20878696741706948</v>
       </c>
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
@@ -34001,10 +34079,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A0906-58CC-F747-ABA1-CD7D69243962}">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -34014,197 +34092,200 @@
     <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD3" s="57" t="s">
+    <row r="3" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR3" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AS3" s="57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD4" s="57" t="s">
+    <row r="4" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR4" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="AE4" s="57" t="s">
+      <c r="AS4" s="57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD5" s="57" t="s">
+    <row r="5" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR5" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="AE5" s="57" t="s">
+      <c r="AS5" s="57" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD6" s="57" t="s">
+    <row r="6" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR6" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="AE6" s="57" t="s">
+      <c r="AS6" s="57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD7" s="57" t="s">
+    <row r="7" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR7" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="AE7" s="57" t="s">
+      <c r="AS7" s="57" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD8" s="57" t="s">
+    <row r="8" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR8" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="AE8" s="57" t="s">
+      <c r="AS8" s="57" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD9" s="57" t="s">
+    <row r="9" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR9" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="AE9" s="57" t="s">
+      <c r="AS9" s="57" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57" t="s">
+    <row r="10" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57" t="s">
+    <row r="11" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57" t="s">
+    <row r="12" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57" t="s">
+    <row r="13" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD14" s="57" t="s">
+    <row r="14" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR14" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="AE14" s="57" t="s">
+      <c r="AS14" s="57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD15" s="57" t="s">
+    <row r="15" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR15" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AE15" s="57" t="s">
+      <c r="AS15" s="57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD16" s="57" t="s">
+    <row r="16" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR16" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="AE16" s="57"/>
+      <c r="AS16" s="57"/>
     </row>
-    <row r="17" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="58" t="s">
+    <row r="17" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="58" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57" t="s">
+    <row r="18" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57" t="s">
+    <row r="19" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
+    <row r="20" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
     </row>
-    <row r="21" spans="1:31" ht="23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
     </row>
-    <row r="22" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="58" t="s">
+    <row r="22" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="58" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="57" t="s">
+    <row r="23" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57" t="s">
+    <row r="24" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="59" t="s">
+    <row r="25" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="59" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57" t="s">
+    <row r="26" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
+    <row r="27" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
     </row>
-    <row r="28" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="58" t="s">
+    <row r="28" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57" t="s">
+    <row r="29" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57" t="s">
+    <row r="30" spans="1:45" ht="23" x14ac:dyDescent="0.25">
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57" t="s">
         <v>218</v>
       </c>
     </row>
